--- a/DRE/cap06-Workflows/WF-Overhaul/IPT_ACRM_TablasDetalladaVentas_150519.xlsx
+++ b/DRE/cap06-Workflows/WF-Overhaul/IPT_ACRM_TablasDetalladaVentas_150519.xlsx
@@ -454,39 +454,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -505,6 +472,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -842,14 +842,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="24" t="s">
         <v>13</v>
       </c>
     </row>
@@ -860,8 +860,8 @@
       <c r="C3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -900,14 +900,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="24" t="s">
         <v>13</v>
       </c>
     </row>
@@ -918,8 +918,8 @@
       <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
@@ -1078,18 +1078,18 @@
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="17" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       <c r="B18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="15" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="B19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="15" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       <c r="B20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="15" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       <c r="B21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="15" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
   <dimension ref="B4:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="B4:E23"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,14 +1196,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="24" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1214,8 +1214,8 @@
       <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
@@ -1284,24 +1284,24 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
@@ -1367,7 +1367,7 @@
       <c r="B20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="15" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="7"/>
@@ -1377,7 +1377,7 @@
       <c r="B21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="15" t="s">
         <v>69</v>
       </c>
       <c r="D21" s="7"/>
@@ -1387,7 +1387,7 @@
       <c r="B22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D22" s="7"/>
@@ -1397,7 +1397,7 @@
       <c r="B23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="15" t="s">
         <v>71</v>
       </c>
       <c r="D23" s="7"/>
@@ -1505,14 +1505,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="24" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1523,8 +1523,8 @@
       <c r="C3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -1577,10 +1577,10 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="29" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1591,16 +1591,16 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="20"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
-      <c r="C10" s="24"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="7" t="s">
         <v>38</v>
       </c>
@@ -1707,14 +1707,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="24" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1725,8 +1725,8 @@
       <c r="C3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">

--- a/DRE/cap06-Workflows/WF-Overhaul/IPT_ACRM_TablasDetalladaVentas_150519.xlsx
+++ b/DRE/cap06-Workflows/WF-Overhaul/IPT_ACRM_TablasDetalladaVentas_150519.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7605" tabRatio="919" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7605" tabRatio="919" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Tareas_VTA.010" sheetId="3" r:id="rId1"/>
     <sheet name="Áreas_VTA.010" sheetId="13" r:id="rId2"/>
     <sheet name="Tareas_VTA.020" sheetId="1" r:id="rId3"/>
     <sheet name="Áreas_VTA.020" sheetId="2" r:id="rId4"/>
-    <sheet name="Tareas_VTA.040" sheetId="10" r:id="rId5"/>
-    <sheet name="Áreas_VTA.040" sheetId="12" r:id="rId6"/>
-    <sheet name="Tareas_VTA.PROY" sheetId="5" r:id="rId7"/>
-    <sheet name="Áreas_VTA.PROY" sheetId="6" r:id="rId8"/>
-    <sheet name="Tareas_VTA.050" sheetId="7" r:id="rId9"/>
-    <sheet name="Áreas_VTA.050" sheetId="9" r:id="rId10"/>
+    <sheet name="Tareas_VTA.costes" sheetId="10" r:id="rId5"/>
+    <sheet name="Áreas_VTA.costes" sheetId="12" r:id="rId6"/>
+    <sheet name="Tareas_VTA.030" sheetId="5" r:id="rId7"/>
+    <sheet name="Áreas_VTA.030" sheetId="6" r:id="rId8"/>
+    <sheet name="Tareas_VTA.040" sheetId="7" r:id="rId9"/>
+    <sheet name="Áreas_VTA.040" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="81">
   <si>
     <t xml:space="preserve">Identificador </t>
   </si>
@@ -116,12 +116,6 @@
     <t>VTA.040.20</t>
   </si>
   <si>
-    <t>VTA.050.05</t>
-  </si>
-  <si>
-    <t>Gestión de la Garantía</t>
-  </si>
-  <si>
     <t>Solicitar a I+D diseño de Lista de Materiales</t>
   </si>
   <si>
@@ -261,6 +255,27 @@
   </si>
   <si>
     <t>WF11</t>
+  </si>
+  <si>
+    <t>VTA.030.05</t>
+  </si>
+  <si>
+    <t>VTA.030.10</t>
+  </si>
+  <si>
+    <t>VTA.030.15</t>
+  </si>
+  <si>
+    <t>VTA.030.20</t>
+  </si>
+  <si>
+    <t>KAM</t>
+  </si>
+  <si>
+    <t>Back-office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gestión de la Garantía</t>
   </si>
 </sst>
 </file>
@@ -414,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -504,6 +519,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -808,7 +826,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>19</v>
@@ -816,7 +834,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -831,14 +849,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="5" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
@@ -864,11 +884,11 @@
       <c r="E3" s="32"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
+      <c r="B4" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -923,30 +943,30 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -1047,7 +1067,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
@@ -1055,7 +1075,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -1063,7 +1083,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
@@ -1071,7 +1091,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>22</v>
@@ -1079,7 +1099,7 @@
     </row>
     <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>6</v>
@@ -1087,90 +1107,90 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1183,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="B4:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,22 +1244,30 @@
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
@@ -1251,7 +1279,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>4</v>
@@ -1263,17 +1291,21 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>22</v>
@@ -1285,120 +1317,124 @@
     </row>
     <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="D12" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -1440,7 +1476,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -1448,7 +1484,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -1456,7 +1492,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -1464,23 +1500,23 @@
         <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1531,10 +1567,10 @@
         <v>23</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -1543,10 +1579,10 @@
         <v>24</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="7"/>
     </row>
@@ -1555,10 +1591,10 @@
         <v>25</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" s="7"/>
     </row>
@@ -1567,34 +1603,34 @@
         <v>26</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
       <c r="C9" s="30"/>
       <c r="D9" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" s="7"/>
     </row>
@@ -1602,19 +1638,19 @@
       <c r="B10" s="28"/>
       <c r="C10" s="31"/>
       <c r="D10" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -1655,7 +1691,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -1663,7 +1699,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -1671,7 +1707,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -1679,7 +1715,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -1695,7 +1731,7 @@
   <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,7 +1766,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -1740,7 +1776,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -1750,26 +1786,22 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
   </sheetData>
@@ -1793,7 +1825,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -1805,11 +1837,11 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>28</v>
+      <c r="B3" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/DRE/cap06-Workflows/WF-Overhaul/IPT_ACRM_TablasDetalladaVentas_150519.xlsx
+++ b/DRE/cap06-Workflows/WF-Overhaul/IPT_ACRM_TablasDetalladaVentas_150519.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7605" tabRatio="919" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7605" tabRatio="919" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tareas_VTA.010" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="82">
   <si>
     <t xml:space="preserve">Identificador </t>
   </si>
@@ -92,9 +92,6 @@
     <t>VTA.020.10</t>
   </si>
   <si>
-    <t>Clasificar como Lead</t>
-  </si>
-  <si>
     <t>Identificar la Importancia</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>KAM asignado</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>VTA.020.15</t>
   </si>
   <si>
@@ -276,6 +270,15 @@
   </si>
   <si>
     <t xml:space="preserve">  Gestión de la Garantía</t>
+  </si>
+  <si>
+    <t>Identificar la importancia</t>
+  </si>
+  <si>
+    <t>Planificar próxima actividad</t>
+  </si>
+  <si>
+    <t>Planificar Próxima Actividad</t>
   </si>
 </sst>
 </file>
@@ -488,6 +491,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -519,9 +525,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -807,13 +810,13 @@
   <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -826,18 +829,18 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -849,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -862,14 +865,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>13</v>
       </c>
     </row>
@@ -880,15 +883,15 @@
       <c r="C3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
-        <v>23</v>
+      <c r="B4" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -907,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,14 +923,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>13</v>
       </c>
     </row>
@@ -938,35 +941,35 @@
       <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -1062,12 +1065,12 @@
         <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
@@ -1075,7 +1078,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -1083,7 +1086,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
@@ -1091,15 +1094,15 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>6</v>
@@ -1107,90 +1110,90 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1216,14 +1219,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1234,8 +1237,8 @@
       <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
@@ -1245,10 +1248,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1256,18 +1259,18 @@
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>4</v>
@@ -1291,24 +1294,24 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>16</v>
@@ -1317,124 +1320,124 @@
     </row>
     <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -1473,50 +1476,50 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1541,14 +1544,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1559,98 +1562,98 @@
       <c r="C3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E8" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="28"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="29"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="28"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -1691,7 +1694,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -1699,7 +1702,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -1707,7 +1710,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -1715,7 +1718,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -1743,14 +1746,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1761,12 +1764,12 @@
       <c r="C3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -1776,7 +1779,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -1786,7 +1789,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -1796,7 +1799,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
@@ -1837,11 +1840,11 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
-        <v>23</v>
+      <c r="B3" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
